--- a/test1/test_sheet.xlsx
+++ b/test1/test_sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>dg2</t>
+  </si>
+  <si>
+    <t>title=Used cars in Mumbai - GoZoomo</t>
+  </si>
+  <si>
+    <t>ts4</t>
+  </si>
+  <si>
+    <t>get_alert</t>
+  </si>
+  <si>
+    <t>test=Login or register to get alerts.</t>
   </si>
 </sst>
 </file>
@@ -182,10 +194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -284,7 +296,24 @@
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test1/test_sheet.xlsx
+++ b/test1/test_sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -59,34 +59,34 @@
     <t>title=GoZoomo: The best place to buy used cars</t>
   </si>
   <si>
+    <t>go_to_listing</t>
+  </si>
+  <si>
+    <t>dg1</t>
+  </si>
+  <si>
+    <t>title=Used cars in Bangalore - GoZoomo</t>
+  </si>
+  <si>
+    <t>get_alert</t>
+  </si>
+  <si>
+    <t>test=Login or register to get alerts.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>ts2</t>
   </si>
   <si>
-    <t>go_to_listing</t>
-  </si>
-  <si>
-    <t>dg1</t>
-  </si>
-  <si>
-    <t>title=Used cars in Bangalore - GoZoomo</t>
-  </si>
-  <si>
-    <t>ts3</t>
-  </si>
-  <si>
     <t>dg2</t>
   </si>
   <si>
     <t>title=Used cars in Mumbai - GoZoomo</t>
   </si>
   <si>
-    <t>ts4</t>
-  </si>
-  <si>
-    <t>get_alert</t>
-  </si>
-  <si>
-    <t>test=Login or register to get alerts.</t>
+    <t>##</t>
   </si>
 </sst>
 </file>
@@ -194,10 +194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -205,7 +205,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.11224489795918"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.3520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
@@ -261,58 +263,102 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
     </row>
